--- a/blockShemi/labaa8/laba8ExelTask.xlsx
+++ b/blockShemi/labaa8/laba8ExelTask.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\education\raboti\Labi\OAiP_1sem\blockShemi\labaa8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957FCB96-5B89-43EE-BA96-6DD22AA77159}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBF3A44-3A9A-4E4E-AE39-B10D03227B05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4356" yWindow="1272" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -28,10 +28,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -349,7 +345,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -358,11 +356,11 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>7.4202441436724778</v>
+        <v>6.031097510166993</v>
       </c>
       <c r="B1">
-        <f>COS(A1)-A1+7</f>
-        <v>2.098992565269242E-5</v>
+        <f>COS(A1)+A1-7</f>
+        <v>-5.0870868779817613E-4</v>
       </c>
     </row>
   </sheetData>
